--- a/09a.xlsx
+++ b/09a.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5BA356-2C8C-48DA-8ABB-E787F6E73DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BCFEC-F5BA-42F0-8088-9319C9EA9BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1312" windowWidth="28230" windowHeight="15098" xr2:uid="{26FEE449-AA32-F645-8925-190C8ECF8274}"/>
+    <workbookView xWindow="4500" yWindow="3000" windowWidth="28800" windowHeight="16200" xr2:uid="{26FEE449-AA32-F645-8925-190C8ECF8274}"/>
   </bookViews>
   <sheets>
     <sheet name="相手別事故件数" sheetId="1" r:id="rId1"/>
-    <sheet name="相手別事故件数 (間違ったグラフ)" sheetId="3" r:id="rId2"/>
-    <sheet name="相手別事故件数 (グラフ)" sheetId="2" r:id="rId3"/>
-    <sheet name="GPT cache" sheetId="4" state="veryHidden" r:id="rId4"/>
+    <sheet name="相手別事故件数 (グラフ)" sheetId="2" r:id="rId2"/>
+    <sheet name="相手別事故件数 (範囲を間違ったグラフ)" sheetId="6" r:id="rId3"/>
+    <sheet name="相手別事故件数 (不適切なグラフ)" sheetId="5" r:id="rId4"/>
+    <sheet name="GPT cache" sheetId="4" state="veryHidden" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>相手</t>
     <rPh sb="0" eb="2">
@@ -269,6 +273,17 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'相手別事故件数 (グラフ)'!$A$1</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>電動キックボードの事故件数（相手別、2020年～2022年）</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -299,55 +314,16 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'相手別事故件数 (間違ったグラフ)'!$B$3</c:f>
+              <c:f>'相手別事故件数 (グラフ)'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -363,21 +339,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BC1B-48E1-B1D6-53F1D5B761C5}"/>
+                <c16:uniqueId val="{00000001-E8D6-40E4-9019-66DD18919F6D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -388,23 +359,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BC1B-48E1-B1D6-53F1D5B761C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -413,23 +374,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BC1B-48E1-B1D6-53F1D5B761C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -438,23 +389,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-BC1B-48E1-B1D6-53F1D5B761C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -463,54 +404,72 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-BC1B-48E1-B1D6-53F1D5B761C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-BC1B-48E1-B1D6-53F1D5B761C5}"/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
-          </c:dPt>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'相手別事故件数 (間違ったグラフ)'!$A$4:$A$9</c:f>
+              <c:f>'相手別事故件数 (グラフ)'!$A$4:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>四輪</c:v>
                 </c:pt>
@@ -526,18 +485,15 @@
                 <c:pt idx="4">
                   <c:v>単独</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>合計</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'相手別事故件数 (間違ったグラフ)'!$B$4:$B$9</c:f>
+              <c:f>'相手別事故件数 (グラフ)'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>31</c:v>
                 </c:pt>
@@ -553,15 +509,12 @@
                 <c:pt idx="4">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>74</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F64E-445E-9D66-D4B6B544EAD9}"/>
+              <c16:uniqueId val="{00000000-E8D6-40E4-9019-66DD18919F6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -574,7 +527,8 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-      </c:pie3DChart>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -598,7 +552,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -675,7 +629,402 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'相手別事故件数 (グラフ)'!$A$1</c:f>
+          <c:f>'相手別事故件数 (範囲を間違ったグラフ)'!$A$1</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>電動キックボードの事故件数（相手別、2020年～2022年）</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'相手別事故件数 (範囲を間違ったグラフ)'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>件数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DF84-48D3-8F6F-AAA3049D0FCD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DF84-48D3-8F6F-AAA3049D0FCD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DF84-48D3-8F6F-AAA3049D0FCD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DF84-48D3-8F6F-AAA3049D0FCD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DF84-48D3-8F6F-AAA3049D0FCD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'相手別事故件数 (範囲を間違ったグラフ)'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>四輪</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>自転車</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>歩行者</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>二輪</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>単独</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>合計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'相手別事故件数 (範囲を間違ったグラフ)'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-DF84-48D3-8F6F-AAA3049D0FCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'相手別事故件数 (不適切なグラフ)'!$A$1</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -773,7 +1122,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'相手別事故件数 (グラフ)'!$B$3</c:f>
+              <c:f>'相手別事故件数 (不適切なグラフ)'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -803,7 +1152,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-EDF7-4BB1-861A-752CCAEE01EF}"/>
+                <c16:uniqueId val="{00000001-7B6A-4EB0-803C-F0526E4363A1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -828,7 +1177,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-EDF7-4BB1-861A-752CCAEE01EF}"/>
+                <c16:uniqueId val="{00000003-7B6A-4EB0-803C-F0526E4363A1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -853,7 +1202,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-EDF7-4BB1-861A-752CCAEE01EF}"/>
+                <c16:uniqueId val="{00000005-7B6A-4EB0-803C-F0526E4363A1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -878,7 +1227,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-EDF7-4BB1-861A-752CCAEE01EF}"/>
+                <c16:uniqueId val="{00000007-7B6A-4EB0-803C-F0526E4363A1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -903,7 +1252,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-EDF7-4BB1-861A-752CCAEE01EF}"/>
+                <c16:uniqueId val="{00000009-7B6A-4EB0-803C-F0526E4363A1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -961,7 +1310,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'相手別事故件数 (グラフ)'!$A$4:$A$8</c:f>
+              <c:f>'相手別事故件数 (不適切なグラフ)'!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -984,7 +1333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'相手別事故件数 (グラフ)'!$B$4:$B$8</c:f>
+              <c:f>'相手別事故件数 (不適切なグラフ)'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1008,7 +1357,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-EDF7-4BB1-861A-752CCAEE01EF}"/>
+              <c16:uniqueId val="{0000000A-7B6A-4EB0-803C-F0526E4363A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1185,8 +1534,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1705,6 +2094,525 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2233,17 +3141,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4362339D-AD2F-2B20-02B4-B62BEA0875D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92118303-FDD2-5CBE-899D-7098F4FE8EB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +3179,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2284,7 +3192,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA6C1AE-49D4-4DDB-A837-A508CE342312}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74F871F-DDB0-4C4D-9EA6-2F37DEFB0561}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,6 +3213,122 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39CFDF31-B9E8-449A-8531-D4C44E7ABAC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="相手別事故件数"/>
+      <sheetName val="相手別事故件数 (間違ったグラフ)"/>
+      <sheetName val="相手別事故件数 (グラフ)"/>
+      <sheetName val="GPT cache"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>電動キックボードの事故件数（相手別、2020年～2022年）</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>件数</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>四輪</v>
+          </cell>
+          <cell r="B4">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>自転車</v>
+          </cell>
+          <cell r="B5">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>歩行者</v>
+          </cell>
+          <cell r="B6">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>二輪</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>単独</v>
+          </cell>
+          <cell r="B8">
+            <v>18</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2729,7 +3753,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72685339-3CF3-474F-BAEE-9158E493AA0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA5DDEA-425A-487E-B3F2-7E725072D673}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUM(B4:B8)</f>
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA00510-0E9D-40D4-A43D-B1AB2C3920C0}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUM(B4:B8)</f>
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B5AEC-DB78-4CEB-AAC6-ADD5A4E5120B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2809,88 +3995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA5DDEA-425A-487E-B3F2-7E725072D673}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <f>SUM(B4:B8)</f>
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D6298E-E179-4362-9DB5-E3D48F716608}">
   <dimension ref="ACC591543"/>
   <sheetViews>

--- a/09a.xlsx
+++ b/09a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BCFEC-F5BA-42F0-8088-9319C9EA9BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84438979-EC45-4D8E-B174-FFAF46CB77E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3000" windowWidth="28800" windowHeight="16200" xr2:uid="{26FEE449-AA32-F645-8925-190C8ECF8274}"/>
+    <workbookView xWindow="4500" yWindow="3000" windowWidth="21090" windowHeight="16200" xr2:uid="{26FEE449-AA32-F645-8925-190C8ECF8274}"/>
   </bookViews>
   <sheets>
     <sheet name="相手別事故件数" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="相手別事故件数 (不適切なグラフ)" sheetId="5" r:id="rId4"/>
     <sheet name="GPT cache" sheetId="4" state="veryHidden" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -366,6 +363,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2C01-4D8F-9D4C-B5A0A219F228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -381,6 +383,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2C01-4D8F-9D4C-B5A0A219F228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -396,6 +403,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2C01-4D8F-9D4C-B5A0A219F228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -411,6 +423,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2C01-4D8F-9D4C-B5A0A219F228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -800,6 +817,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7783-48A8-8F7E-BCAC95569579}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3258,79 +3280,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="相手別事故件数"/>
-      <sheetName val="相手別事故件数 (間違ったグラフ)"/>
-      <sheetName val="相手別事故件数 (グラフ)"/>
-      <sheetName val="GPT cache"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>電動キックボードの事故件数（相手別、2020年～2022年）</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>件数</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>四輪</v>
-          </cell>
-          <cell r="B4">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>自転車</v>
-          </cell>
-          <cell r="B5">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>歩行者</v>
-          </cell>
-          <cell r="B6">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>二輪</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>単独</v>
-          </cell>
-          <cell r="B8">
-            <v>18</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3677,7 +3626,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -3756,8 +3705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA5DDEA-425A-487E-B3F2-7E725072D673}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -3837,8 +3786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA00510-0E9D-40D4-A43D-B1AB2C3920C0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>

--- a/09a.xlsx
+++ b/09a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84438979-EC45-4D8E-B174-FFAF46CB77E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE630F2-BBE2-4EBF-9567-8880930131C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="3000" windowWidth="21090" windowHeight="16200" xr2:uid="{26FEE449-AA32-F645-8925-190C8ECF8274}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>相手</t>
     <rPh sb="0" eb="2">
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>{"hash":"ce3906b67460c2f4d99c4573a8d4b280b35ef4ee488d167b6dce9cdf7856a5ff","version":1,"value":"[[\"円グラフを作成するためには、まず対象となるデータの件数を集計する必要があります。以下に、データの集計方法と円グラフの作成手順を示します。\\n\\n1. データの集計方法\\n   - 対象となるデータをカテゴリごとに分類します。例えば、Aさん、Bさん、Cさんの3人に対する件数を集計する場合、それぞれのカテゴリを「Aさん」、「Bさん」、「Cさん」とします。\\n   - データの中から各カテゴリに該当する件数を数えます。例えば、Aさんに対する件数が10件、Bさんに対する件数が15件、Cさんに対する件数が5件だった場合、それぞれのカテゴリの件数は10、15、5となります。\\n\\n2. 円グラフの作成手順\\n   - データの件数を元に、各カテゴリの割合を計算します。割合は、各カテゴリの件数を全体の件数で割った値です。例えば、全体の件数が30件の場合、Aさんの割合は10/30、Bさんの割合は15/30、Cさんの割合は5/30となります。\\n   - 割合を円グラフに反映させるために、各カテゴリの割合を度数に変換します。度数は、割合を360度で乗じた値です。例えば、Aさんの割合が1/3の場合、度数は1/3 * 360 = 120度となります。\\n   - 各カテゴリの度数を円グラフ上に描画します。度数に応じて、各カテゴリの扇形の大きさを設定します。また、各カテゴリの色やラベルを追加することもできます。\\n\\n以上の手順に従って、対象に対する件数の割合を円グラフに描画することができます。\"]]"}</t>
+  </si>
+  <si>
+    <t>出典：警察庁（https://www.npa.go.jp/bureau/traffic/bunseki/nenkan/050302R04nenkan.pdf）</t>
   </si>
 </sst>
 </file>
@@ -3623,7 +3626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C8B074-F59B-BD4B-83A4-A6D9FFF392AF}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -3694,6 +3697,11 @@
         <v>74</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.8">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3703,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA5DDEA-425A-487E-B3F2-7E725072D673}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -3772,6 +3780,11 @@
       <c r="B9" s="5">
         <f>SUM(B4:B8)</f>
         <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.8">
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3784,10 +3797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA00510-0E9D-40D4-A43D-B1AB2C3920C0}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -3853,6 +3866,11 @@
       <c r="B9" s="5">
         <f>SUM(B4:B8)</f>
         <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.8">
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3865,10 +3883,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B5AEC-DB78-4CEB-AAC6-ADD5A4E5120B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -3934,6 +3952,11 @@
       <c r="B9" s="5">
         <f>SUM(B4:B8)</f>
         <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.8">
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
